--- a/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST/AR2_50_9_matched_errors_latest.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST/AR2_50_9_matched_errors_latest.xlsx
@@ -513,7 +513,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1.917841862010113</v>
+        <v>1.927221669332189</v>
       </c>
       <c r="C2">
         <v>9.837584713160302</v>
@@ -537,10 +537,10 @@
         <v>-0.2070064541835144</v>
       </c>
       <c r="J2">
-        <v>-0.3087761318937004</v>
+        <v>-0.2992794557303528</v>
       </c>
       <c r="K2">
-        <v>0.4406809072322094</v>
+        <v>0.4218121033883159</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -569,13 +569,13 @@
         <v>-0.3185788459769703</v>
       </c>
       <c r="I3">
-        <v>-0.4134238858276306</v>
+        <v>-0.403927209664283</v>
       </c>
       <c r="J3">
-        <v>0.339489628667936</v>
+        <v>0.3206208248240425</v>
       </c>
       <c r="K3">
-        <v>-0.3960355596428798</v>
+        <v>-0.3865256473744087</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -601,13 +601,13 @@
         <v>-2.838283617142116</v>
       </c>
       <c r="H4">
-        <v>-2.520901996774469</v>
+        <v>-2.511405320611122</v>
       </c>
       <c r="I4">
-        <v>-1.452216113249468</v>
+        <v>-1.471084917093361</v>
       </c>
       <c r="J4">
-        <v>-1.946364067545077</v>
+        <v>-1.936854155276606</v>
       </c>
       <c r="K4">
         <v>-1.259591532749623</v>
@@ -633,19 +633,19 @@
         <v>-0.8601017152321409</v>
       </c>
       <c r="G5">
-        <v>-0.1088957507041491</v>
+        <v>-0.09939907454080149</v>
       </c>
       <c r="H5">
-        <v>0.137794265251496</v>
+        <v>0.1189254614076025</v>
       </c>
       <c r="I5">
-        <v>-0.3037915212352779</v>
+        <v>-0.2942816089668068</v>
       </c>
       <c r="J5">
         <v>0.02373110695769962</v>
       </c>
       <c r="K5">
-        <v>0.5866062041991886</v>
+        <v>0.5960011684983292</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -665,22 +665,22 @@
         <v>-0.3098707196098889</v>
       </c>
       <c r="F6">
-        <v>-0.3561489916273887</v>
+        <v>-0.3466523154640411</v>
       </c>
       <c r="G6">
-        <v>0.3983784058725173</v>
+        <v>0.3795096020286238</v>
       </c>
       <c r="H6">
-        <v>-0.3475725414649661</v>
+        <v>-0.338062629196495</v>
       </c>
       <c r="I6">
         <v>0.1554186044269008</v>
       </c>
       <c r="J6">
-        <v>0.6166361260428808</v>
+        <v>0.6260310903420213</v>
       </c>
       <c r="K6">
-        <v>0.9572771289936612</v>
+        <v>0.9384812611916777</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -697,25 +697,25 @@
         <v>-0.3917767734330242</v>
       </c>
       <c r="E7">
-        <v>-0.2810569422461031</v>
+        <v>-0.2715602660827555</v>
       </c>
       <c r="F7">
-        <v>0.5042855663862411</v>
+        <v>0.4854167625423476</v>
       </c>
       <c r="G7">
-        <v>-0.2891558953063107</v>
+        <v>-0.2796459830378396</v>
       </c>
       <c r="H7">
         <v>0.2218572882569923</v>
       </c>
       <c r="I7">
-        <v>0.6913180846537172</v>
+        <v>0.7007130489528578</v>
       </c>
       <c r="J7">
-        <v>1.02759042089464</v>
+        <v>1.008794553092657</v>
       </c>
       <c r="K7">
-        <v>0.1203960890641987</v>
+        <v>0.1299126185042169</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -729,28 +729,28 @@
         <v>-0.517882057398382</v>
       </c>
       <c r="D8">
-        <v>-0.1128088736128714</v>
+        <v>-0.1033121974495238</v>
       </c>
       <c r="E8">
-        <v>0.5649496589901234</v>
+        <v>0.5460808551462299</v>
       </c>
       <c r="F8">
-        <v>-0.2780230559316778</v>
+        <v>-0.2685131436632067</v>
       </c>
       <c r="G8">
         <v>0.2847200395839229</v>
       </c>
       <c r="H8">
-        <v>0.7486696124474606</v>
+        <v>0.758064576746601</v>
       </c>
       <c r="I8">
-        <v>1.072095597899019</v>
+        <v>1.053299730097035</v>
       </c>
       <c r="J8">
-        <v>0.1714699600906173</v>
+        <v>0.1809864895306355</v>
       </c>
       <c r="K8">
-        <v>-0.5561861250965092</v>
+        <v>-0.5467029577186135</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -761,31 +761,31 @@
         <v>-1.122322677246121</v>
       </c>
       <c r="C9">
-        <v>-0.1770122509675648</v>
+        <v>-0.1675155748042172</v>
       </c>
       <c r="D9">
-        <v>0.8564969670473401</v>
+        <v>0.8376281632034467</v>
       </c>
       <c r="E9">
-        <v>-0.3157299320176114</v>
+        <v>-0.3062200197491403</v>
       </c>
       <c r="F9">
         <v>0.2761360195104618</v>
       </c>
       <c r="G9">
-        <v>0.8324106900448288</v>
+        <v>0.8418056543439694</v>
       </c>
       <c r="H9">
-        <v>1.106922742827064</v>
+        <v>1.088126875025081</v>
       </c>
       <c r="I9">
-        <v>0.1980343431429143</v>
+        <v>0.2075508725829325</v>
       </c>
       <c r="J9">
-        <v>-0.5106872843499104</v>
+        <v>-0.5012041169720147</v>
       </c>
       <c r="K9">
-        <v>1.152960537891647</v>
+        <v>1.153032079870361</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -793,34 +793,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.2646530798064761</v>
+        <v>-0.2551564036431285</v>
       </c>
       <c r="C10">
-        <v>0.8040777650176716</v>
+        <v>0.7852089611737781</v>
       </c>
       <c r="D10">
-        <v>-0.2570835350326058</v>
+        <v>-0.2475736227641347</v>
       </c>
       <c r="E10">
         <v>0.2810651648475631</v>
       </c>
       <c r="F10">
-        <v>0.8213174069959336</v>
+        <v>0.8307123712950741</v>
       </c>
       <c r="G10">
-        <v>1.119689442052151</v>
+        <v>1.100893574250167</v>
       </c>
       <c r="H10">
-        <v>0.2067639021902734</v>
+        <v>0.2162804316302916</v>
       </c>
       <c r="I10">
-        <v>-0.5081853402010585</v>
+        <v>-0.4987021728231629</v>
       </c>
       <c r="J10">
-        <v>1.159236475363329</v>
+        <v>1.159308017342042</v>
       </c>
       <c r="K10">
-        <v>0.5563291029583382</v>
+        <v>0.5374031615669816</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -828,34 +828,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.8265057446506803</v>
+        <v>0.8076369408067867</v>
       </c>
       <c r="C11">
-        <v>-0.2544799954701571</v>
+        <v>-0.244970083201686</v>
       </c>
       <c r="D11">
         <v>0.2589974791935479</v>
       </c>
       <c r="E11">
-        <v>0.8153354266915787</v>
+        <v>0.8247303909907191</v>
       </c>
       <c r="F11">
-        <v>1.114346191869739</v>
+        <v>1.095550324067756</v>
       </c>
       <c r="G11">
-        <v>0.1963953688199071</v>
+        <v>0.2059118982599253</v>
       </c>
       <c r="H11">
-        <v>-0.5166626623246824</v>
+        <v>-0.5071794949467867</v>
       </c>
       <c r="I11">
-        <v>1.151464167056518</v>
+        <v>1.151535709035231</v>
       </c>
       <c r="J11">
-        <v>0.5477051294253695</v>
+        <v>0.528779188034013</v>
       </c>
       <c r="K11">
-        <v>0.7590696405736849</v>
+        <v>0.7685186244804663</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -863,31 +863,31 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.233055424012937</v>
+        <v>-0.2235455117444659</v>
       </c>
       <c r="C12">
         <v>0.3791753279927603</v>
       </c>
       <c r="D12">
-        <v>0.7261410822777955</v>
+        <v>0.7355360465769361</v>
       </c>
       <c r="E12">
-        <v>1.084619188021162</v>
+        <v>1.065823320219178</v>
       </c>
       <c r="F12">
-        <v>0.2050214888498172</v>
+        <v>0.2145380182898354</v>
       </c>
       <c r="G12">
-        <v>-0.5426028357501176</v>
+        <v>-0.5331196683722219</v>
       </c>
       <c r="H12">
-        <v>1.12868560402829</v>
+        <v>1.128757146007004</v>
       </c>
       <c r="I12">
-        <v>0.5340870942767517</v>
+        <v>0.5151611528853952</v>
       </c>
       <c r="J12">
-        <v>0.740548843388509</v>
+        <v>0.7499978272952905</v>
       </c>
       <c r="K12">
         <v>0.6461055229105617</v>
@@ -901,31 +901,31 @@
         <v>0.3368546956723708</v>
       </c>
       <c r="C13">
-        <v>0.6969366084220623</v>
+        <v>0.7063315727212027</v>
       </c>
       <c r="D13">
-        <v>1.08159858821624</v>
+        <v>1.062802720414257</v>
       </c>
       <c r="E13">
-        <v>0.1861602052383368</v>
+        <v>0.195676734678355</v>
       </c>
       <c r="F13">
-        <v>-0.5629339668153218</v>
+        <v>-0.5534507994374261</v>
       </c>
       <c r="G13">
-        <v>1.114155448594042</v>
+        <v>1.114226990572756</v>
       </c>
       <c r="H13">
-        <v>0.5174460487844837</v>
+        <v>0.4985201073931272</v>
       </c>
       <c r="I13">
-        <v>0.7229649979597589</v>
+        <v>0.7324139818665403</v>
       </c>
       <c r="J13">
         <v>0.6296316393805188</v>
       </c>
       <c r="K13">
-        <v>-0.208848880058122</v>
+        <v>-0.16111618316075</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -933,34 +933,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>1.037134349039972</v>
+        <v>1.046529313339113</v>
       </c>
       <c r="C14">
-        <v>1.156969650000178</v>
+        <v>1.138173782198194</v>
       </c>
       <c r="D14">
-        <v>-0.004933081074662282</v>
+        <v>0.004583448365355902</v>
       </c>
       <c r="E14">
-        <v>-0.5382400542285886</v>
+        <v>-0.5287568868506929</v>
       </c>
       <c r="F14">
-        <v>1.123534852150338</v>
+        <v>1.123606394129052</v>
       </c>
       <c r="G14">
-        <v>0.4626352501730927</v>
+        <v>0.4437093087817362</v>
       </c>
       <c r="H14">
-        <v>0.7040709070710891</v>
+        <v>0.7135198909778705</v>
       </c>
       <c r="I14">
         <v>0.614767638565473</v>
       </c>
       <c r="J14">
-        <v>-0.2375605906874927</v>
+        <v>-0.1898278937901207</v>
       </c>
       <c r="K14">
-        <v>0.5297973106668776</v>
+        <v>0.4254186206066807</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -968,31 +968,34 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>1.607664521990428</v>
+        <v>1.588868654188444</v>
       </c>
       <c r="C15">
-        <v>0.0421776211376961</v>
+        <v>0.05169415057771429</v>
       </c>
       <c r="D15">
-        <v>-0.7785232850193968</v>
+        <v>-0.7690401176415012</v>
       </c>
       <c r="E15">
-        <v>1.159479933216201</v>
+        <v>1.159551475194915</v>
       </c>
       <c r="F15">
-        <v>0.4605844927334998</v>
+        <v>0.4416585513421433</v>
       </c>
       <c r="G15">
-        <v>0.6275026676350589</v>
+        <v>0.6369516515418403</v>
       </c>
       <c r="H15">
         <v>0.5873682441901897</v>
       </c>
       <c r="I15">
-        <v>-0.2638496408852181</v>
+        <v>-0.2161169439878461</v>
       </c>
       <c r="J15">
-        <v>0.4864000199535451</v>
+        <v>0.382021329893348</v>
+      </c>
+      <c r="K15">
+        <v>0.2305062539156956</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1000,117 +1003,132 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.3545032080612346</v>
+        <v>0.3640197375012527</v>
       </c>
       <c r="C16">
-        <v>-0.6452345452838726</v>
+        <v>-0.6357513779059769</v>
       </c>
       <c r="D16">
-        <v>0.9804015114000096</v>
+        <v>0.9804730533787229</v>
       </c>
       <c r="E16">
-        <v>0.488778731504067</v>
+        <v>0.4698527901127105</v>
       </c>
       <c r="F16">
-        <v>0.6635279788274524</v>
+        <v>0.6729769627342338</v>
       </c>
       <c r="G16">
         <v>0.5498266739859761</v>
       </c>
       <c r="H16">
-        <v>-0.2693919799725794</v>
+        <v>-0.2216592830752073</v>
       </c>
       <c r="I16">
-        <v>0.4905753488922937</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.3861966588320966</v>
+      </c>
+      <c r="J16">
+        <v>0.2193215401759246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-0.4096440541760313</v>
+        <v>-0.4001608867981357</v>
       </c>
       <c r="C17">
-        <v>1.065080252274319</v>
+        <v>1.065151794253032</v>
       </c>
       <c r="D17">
-        <v>0.3431783648703499</v>
+        <v>0.3242524234789934</v>
       </c>
       <c r="E17">
-        <v>0.6734817216866951</v>
+        <v>0.6829307055934764</v>
       </c>
       <c r="F17">
         <v>0.565191843685521</v>
       </c>
       <c r="G17">
-        <v>-0.3082403149300024</v>
+        <v>-0.2605076180326304</v>
       </c>
       <c r="H17">
-        <v>0.4747295398651078</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>0.3703508498049107</v>
+      </c>
+      <c r="I17">
+        <v>0.2109873117084238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
-        <v>1.376104438755702</v>
+        <v>1.376175980734415</v>
       </c>
       <c r="C18">
-        <v>0.4602671392815451</v>
+        <v>0.4413411978901886</v>
       </c>
       <c r="D18">
-        <v>0.5110175802371282</v>
+        <v>0.5204665641439096</v>
       </c>
       <c r="E18">
         <v>0.5941507941507226</v>
       </c>
       <c r="F18">
-        <v>-0.2724974424750988</v>
+        <v>-0.2247647455777268</v>
       </c>
       <c r="G18">
-        <v>0.4434018934814807</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>0.3390232034212837</v>
+      </c>
+      <c r="H18">
+        <v>0.2077622620068982</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.7070923166856595</v>
+        <v>0.688166375294303</v>
       </c>
       <c r="C19">
-        <v>0.5286734477750177</v>
+        <v>0.5381224316817991</v>
       </c>
       <c r="D19">
         <v>0.4995285550397281</v>
       </c>
       <c r="E19">
-        <v>-0.2402800542266187</v>
+        <v>-0.1925473573292467</v>
       </c>
       <c r="F19">
-        <v>0.455790019309198</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>0.351411329249001</v>
+      </c>
+      <c r="G19">
+        <v>0.1868984584576193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.7683498071912296</v>
+        <v>0.777798791098011</v>
       </c>
       <c r="C20">
         <v>0.5845527985089416</v>
       </c>
       <c r="D20">
-        <v>-0.3567646325846329</v>
+        <v>-0.3090319356872608</v>
       </c>
       <c r="E20">
-        <v>0.4708952909610505</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>0.3665166009008535</v>
+      </c>
+      <c r="F20">
+        <v>0.2101374940836094</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1118,34 +1136,46 @@
         <v>0.7494128755430289</v>
       </c>
       <c r="C21">
-        <v>-0.3432273603367166</v>
+        <v>-0.2954946634393446</v>
       </c>
       <c r="D21">
-        <v>0.4079223719710875</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>0.3035436819108904</v>
+      </c>
+      <c r="E21">
+        <v>0.2201756597651073</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.08937831847130862</v>
+        <v>-0.04164562157393659</v>
       </c>
       <c r="C22">
-        <v>0.5072404221531239</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>0.4028617320929269</v>
+      </c>
+      <c r="D22">
+        <v>0.1085991175498651</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0.5513001133925729</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0.4469214233323758</v>
+      </c>
+      <c r="C23">
+        <v>0.130019622424466</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="B24">
+        <v>0.3662627537369125</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST/AR2_50_9_matched_errors_latest.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST/AR2_50_9_matched_errors_latest.xlsx
@@ -513,34 +513,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1.927221669332189</v>
+        <v>9.796688323618699</v>
       </c>
       <c r="C2">
-        <v>9.837584713160302</v>
+        <v>-8.419353553388079</v>
       </c>
       <c r="D2">
-        <v>-8.393319678463875</v>
+        <v>-0.6232160131165674</v>
       </c>
       <c r="E2">
-        <v>-0.6114282742262651</v>
+        <v>0.719781571001505</v>
       </c>
       <c r="F2">
-        <v>0.7256963240920438</v>
+        <v>-1.645709516164073</v>
       </c>
       <c r="G2">
-        <v>-1.642839634255813</v>
+        <v>-0.9785742016169946</v>
       </c>
       <c r="H2">
-        <v>-0.9771667137106722</v>
+        <v>-0.20769435928658</v>
       </c>
       <c r="I2">
-        <v>-0.2070064541835144</v>
+        <v>-0.2996160391110768</v>
       </c>
       <c r="J2">
-        <v>-0.2992794557303528</v>
+        <v>0.4216474758156494</v>
       </c>
       <c r="K2">
-        <v>0.4218121033883159</v>
+        <v>-0.2871398212255388</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -548,34 +548,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>8.922033415210226</v>
+        <v>-9.334904851338155</v>
       </c>
       <c r="C3">
-        <v>-8.948758593113844</v>
+        <v>-1.178654927766538</v>
       </c>
       <c r="D3">
-        <v>-0.9303479844240307</v>
+        <v>0.4008618608037394</v>
       </c>
       <c r="E3">
-        <v>0.5164939396244489</v>
+        <v>-1.854911900631668</v>
       </c>
       <c r="F3">
-        <v>-1.79605706606462</v>
+        <v>-1.131791633425802</v>
       </c>
       <c r="G3">
-        <v>-1.102621583316697</v>
+        <v>-0.333149228892605</v>
       </c>
       <c r="H3">
-        <v>-0.3185788459769703</v>
+        <v>-0.4111884309045327</v>
       </c>
       <c r="I3">
-        <v>-0.403927209664283</v>
+        <v>0.3169997218817192</v>
       </c>
       <c r="J3">
-        <v>0.3206208248240425</v>
+        <v>-0.3883310997898122</v>
       </c>
       <c r="K3">
-        <v>-0.3865256473744087</v>
+        <v>0.1055803449480684</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -583,34 +583,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-16.11398847570079</v>
+        <v>-8.343884810353487</v>
       </c>
       <c r="C4">
-        <v>-6.705002781970969</v>
+        <v>-5.373792936743199</v>
       </c>
       <c r="D4">
-        <v>-4.12556402130757</v>
+        <v>-6.496969861563686</v>
       </c>
       <c r="E4">
-        <v>-5.546584894696764</v>
+        <v>-4.882319462057946</v>
       </c>
       <c r="F4">
-        <v>-4.15870675213108</v>
+        <v>-3.389234397706988</v>
       </c>
       <c r="G4">
-        <v>-2.838283617142116</v>
+        <v>-2.930893202069679</v>
       </c>
       <c r="H4">
-        <v>-2.511405320611122</v>
+        <v>-1.79047838906512</v>
       </c>
       <c r="I4">
-        <v>-1.471084917093361</v>
+        <v>-2.180036841707216</v>
       </c>
       <c r="J4">
-        <v>-1.936854155276606</v>
+        <v>-1.444748162954129</v>
       </c>
       <c r="K4">
-        <v>-1.259591532749623</v>
+        <v>-0.7897867854766354</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -618,34 +618,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-5.024821635401745</v>
+        <v>-3.693611790173975</v>
       </c>
       <c r="C5">
-        <v>3.290480741201135</v>
+        <v>0.9190749009450181</v>
       </c>
       <c r="D5">
-        <v>-3.298528578471671</v>
+        <v>-2.634263145832853</v>
       </c>
       <c r="E5">
-        <v>-0.177345736941906</v>
+        <v>0.5921266174821862</v>
       </c>
       <c r="F5">
-        <v>-0.8601017152321409</v>
+        <v>-0.9527113001597033</v>
       </c>
       <c r="G5">
-        <v>-0.09939907454080149</v>
+        <v>0.6215278570052007</v>
       </c>
       <c r="H5">
-        <v>0.1189254614076025</v>
+        <v>-0.5900264632062522</v>
       </c>
       <c r="I5">
-        <v>-0.2942816089668068</v>
+        <v>0.1978243833556703</v>
       </c>
       <c r="J5">
-        <v>0.02373110695769962</v>
+        <v>0.4935358542306867</v>
       </c>
       <c r="K5">
-        <v>0.5960011684983292</v>
+        <v>0.9088263634637752</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -653,34 +653,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.4367257855168601</v>
+        <v>-2.808131625772977</v>
       </c>
       <c r="C6">
-        <v>-1.435657923708048</v>
+        <v>-0.77139249106923</v>
       </c>
       <c r="D6">
-        <v>-0.9382546611128859</v>
+        <v>-0.1687823066887937</v>
       </c>
       <c r="E6">
-        <v>-0.3098707196098889</v>
+        <v>-0.4024803045374513</v>
       </c>
       <c r="F6">
-        <v>-0.3466523154640411</v>
+        <v>0.3742746160819611</v>
       </c>
       <c r="G6">
-        <v>0.3795096020286238</v>
+        <v>-0.3294423225852309</v>
       </c>
       <c r="H6">
-        <v>-0.338062629196495</v>
+        <v>0.1540433631259821</v>
       </c>
       <c r="I6">
-        <v>0.1554186044269008</v>
+        <v>0.6252233516998879</v>
       </c>
       <c r="J6">
-        <v>0.6260310903420213</v>
+        <v>0.9388562853074672</v>
       </c>
       <c r="K6">
-        <v>0.9384812611916777</v>
+        <v>0.0600786799400978</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -688,34 +688,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-1.027425470086278</v>
+        <v>-0.3631600374474599</v>
       </c>
       <c r="C7">
-        <v>-0.6866316172264918</v>
+        <v>0.08284073719760038</v>
       </c>
       <c r="D7">
-        <v>-0.3917767734330242</v>
+        <v>-0.4843863583605866</v>
       </c>
       <c r="E7">
-        <v>-0.2715602660827555</v>
+        <v>0.4493666654632467</v>
       </c>
       <c r="F7">
-        <v>0.4854167625423476</v>
+        <v>-0.2235351620715071</v>
       </c>
       <c r="G7">
-        <v>-0.2796459830378396</v>
+        <v>0.2124600092846375</v>
       </c>
       <c r="H7">
-        <v>0.2218572882569923</v>
+        <v>0.6916620355299794</v>
       </c>
       <c r="I7">
-        <v>0.7007130489528578</v>
+        <v>1.013538243918304</v>
       </c>
       <c r="J7">
-        <v>1.008794553092657</v>
+        <v>0.1303919718410766</v>
       </c>
       <c r="K7">
-        <v>0.1299126185042169</v>
+        <v>-0.5999993966742521</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -723,34 +723,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.792130829075307</v>
+        <v>-0.02265847465121479</v>
       </c>
       <c r="C8">
-        <v>-0.517882057398382</v>
+        <v>-0.6104916423259444</v>
       </c>
       <c r="D8">
-        <v>-0.1033121974495238</v>
+        <v>0.6176147340964784</v>
       </c>
       <c r="E8">
-        <v>0.5460808551462299</v>
+        <v>-0.1628710694676248</v>
       </c>
       <c r="F8">
-        <v>-0.2685131436632067</v>
+        <v>0.2235928486592704</v>
       </c>
       <c r="G8">
-        <v>0.2847200395839229</v>
+        <v>0.75452478685691</v>
       </c>
       <c r="H8">
-        <v>0.758064576746601</v>
+        <v>1.070889771712047</v>
       </c>
       <c r="I8">
-        <v>1.053299730097035</v>
+        <v>0.1748971488454556</v>
       </c>
       <c r="J8">
-        <v>0.1809864895306355</v>
+        <v>-0.5489255256478335</v>
       </c>
       <c r="K8">
-        <v>-0.5467029577186135</v>
+        <v>1.115476138671014</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,34 +758,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-1.122322677246121</v>
+        <v>-1.214932262173683</v>
       </c>
       <c r="C9">
-        <v>-0.1675155748042172</v>
+        <v>0.553411356741785</v>
       </c>
       <c r="D9">
-        <v>0.8376281632034467</v>
+        <v>0.128676238589592</v>
       </c>
       <c r="E9">
-        <v>-0.3062200197491403</v>
+        <v>0.1858859725733368</v>
       </c>
       <c r="F9">
-        <v>0.2761360195104618</v>
+        <v>0.7459407667834489</v>
       </c>
       <c r="G9">
-        <v>0.8418056543439694</v>
+        <v>1.154630849309415</v>
       </c>
       <c r="H9">
-        <v>1.088126875025081</v>
+        <v>0.2097242937735006</v>
       </c>
       <c r="I9">
-        <v>0.2075508725829325</v>
+        <v>-0.5223611425955365</v>
       </c>
       <c r="J9">
-        <v>-0.5012041169720147</v>
+        <v>1.160974979417613</v>
       </c>
       <c r="K9">
-        <v>1.153032079870361</v>
+        <v>0.5338127914751168</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -793,34 +793,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.2551564036431285</v>
+        <v>0.4657705279028737</v>
       </c>
       <c r="C10">
-        <v>0.7852089611737781</v>
+        <v>0.07625703655992344</v>
       </c>
       <c r="D10">
-        <v>-0.2475736227641347</v>
+        <v>0.2445323695583424</v>
       </c>
       <c r="E10">
-        <v>0.2810651648475631</v>
+        <v>0.7508699121205502</v>
       </c>
       <c r="F10">
-        <v>0.8307123712950741</v>
+        <v>1.14353756626052</v>
       </c>
       <c r="G10">
-        <v>1.100893574250167</v>
+        <v>0.2224909929985871</v>
       </c>
       <c r="H10">
-        <v>0.2162804316302916</v>
+        <v>-0.5136315835481774</v>
       </c>
       <c r="I10">
-        <v>-0.4987021728231629</v>
+        <v>1.163476923566464</v>
       </c>
       <c r="J10">
-        <v>1.159308017342042</v>
+        <v>0.540088728946798</v>
       </c>
       <c r="K10">
-        <v>0.5374031615669816</v>
+        <v>0.7747069251866952</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -828,34 +828,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.8076369408067867</v>
+        <v>0.09868501619293202</v>
       </c>
       <c r="C11">
-        <v>-0.244970083201686</v>
+        <v>0.2471359091207911</v>
       </c>
       <c r="D11">
-        <v>0.2589974791935479</v>
+        <v>0.728802226466535</v>
       </c>
       <c r="E11">
-        <v>0.8247303909907191</v>
+        <v>1.137555585956165</v>
       </c>
       <c r="F11">
-        <v>1.095550324067756</v>
+        <v>0.217147742816176</v>
       </c>
       <c r="G11">
-        <v>0.2059118982599253</v>
+        <v>-0.5240001169185436</v>
       </c>
       <c r="H11">
-        <v>-0.5071794949467867</v>
+        <v>1.154999601442841</v>
       </c>
       <c r="I11">
-        <v>1.151535709035231</v>
+        <v>0.5323164206399872</v>
       </c>
       <c r="J11">
-        <v>0.528779188034013</v>
+        <v>0.7660829516537266</v>
       </c>
       <c r="K11">
-        <v>0.7685186244804663</v>
+        <v>0.6652412546050546</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -863,34 +863,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.2235455117444659</v>
+        <v>0.2685604805780112</v>
       </c>
       <c r="C12">
-        <v>0.3791753279927603</v>
+        <v>0.8489800752657474</v>
       </c>
       <c r="D12">
-        <v>0.7355360465769361</v>
+        <v>1.048361241542382</v>
       </c>
       <c r="E12">
-        <v>1.065823320219178</v>
+        <v>0.1874207389675982</v>
       </c>
       <c r="F12">
-        <v>0.2145380182898354</v>
+        <v>-0.5153739968886335</v>
       </c>
       <c r="G12">
-        <v>-0.5331196683722219</v>
+        <v>1.129059428017406</v>
       </c>
       <c r="H12">
-        <v>1.128757146007004</v>
+        <v>0.5095378576117597</v>
       </c>
       <c r="I12">
-        <v>0.5151611528853952</v>
+        <v>0.7524649165051087</v>
       </c>
       <c r="J12">
-        <v>0.7499978272952905</v>
+        <v>0.6467204574198788</v>
       </c>
       <c r="K12">
-        <v>0.6461055229105617</v>
+        <v>-0.1454929044188731</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -898,34 +898,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.3368546956723708</v>
+        <v>0.806659442945358</v>
       </c>
       <c r="C13">
-        <v>0.7063315727212027</v>
+        <v>1.019156767686649</v>
       </c>
       <c r="D13">
-        <v>1.062802720414257</v>
+        <v>0.184400139162677</v>
       </c>
       <c r="E13">
-        <v>0.195676734678355</v>
+        <v>-0.534235280500114</v>
       </c>
       <c r="F13">
-        <v>-0.5534507994374261</v>
+        <v>1.108728296952201</v>
       </c>
       <c r="G13">
-        <v>1.114226990572756</v>
+        <v>0.4950077021775119</v>
       </c>
       <c r="H13">
-        <v>0.4985201073931272</v>
+        <v>0.7358238710128409</v>
       </c>
       <c r="I13">
-        <v>0.7324139818665403</v>
+        <v>0.6291366119911286</v>
       </c>
       <c r="J13">
-        <v>0.6296316393805188</v>
+        <v>-0.1619667879489159</v>
       </c>
       <c r="K13">
-        <v>-0.16111618316075</v>
+        <v>0.449372724506711</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -933,34 +933,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>1.046529313339113</v>
+        <v>1.359354508304559</v>
       </c>
       <c r="C14">
-        <v>1.138173782198194</v>
+        <v>0.2597712009466141</v>
       </c>
       <c r="D14">
-        <v>0.004583448365355902</v>
+        <v>-0.7253285668131131</v>
       </c>
       <c r="E14">
-        <v>-0.5287568868506929</v>
+        <v>1.133422209538934</v>
       </c>
       <c r="F14">
-        <v>1.123606394129052</v>
+        <v>0.5043871057338079</v>
       </c>
       <c r="G14">
-        <v>0.4437093087817362</v>
+        <v>0.6810130724014498</v>
       </c>
       <c r="H14">
-        <v>0.7135198909778705</v>
+        <v>0.6102425211024588</v>
       </c>
       <c r="I14">
-        <v>0.614767638565473</v>
+        <v>-0.1768307887639616</v>
       </c>
       <c r="J14">
-        <v>-0.1898278937901207</v>
+        <v>0.4206610138773402</v>
       </c>
       <c r="K14">
-        <v>0.4254186206066807</v>
+        <v>0.2638965897873631</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -968,34 +968,31 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>1.588868654188444</v>
+        <v>0.7104660729368646</v>
       </c>
       <c r="C15">
-        <v>0.05169415057771429</v>
+        <v>-0.6782178646007546</v>
       </c>
       <c r="D15">
-        <v>-0.7690401176415012</v>
+        <v>0.8931389787481262</v>
       </c>
       <c r="E15">
-        <v>1.159551475194915</v>
+        <v>0.5403321867996707</v>
       </c>
       <c r="F15">
-        <v>0.4416585513421433</v>
+        <v>0.6789623149618569</v>
       </c>
       <c r="G15">
-        <v>0.6369516515418403</v>
+        <v>0.5336742816664286</v>
       </c>
       <c r="H15">
-        <v>0.5873682441901897</v>
+        <v>-0.204230183139245</v>
       </c>
       <c r="I15">
-        <v>-0.2161169439878461</v>
+        <v>0.3943719636796149</v>
       </c>
       <c r="J15">
-        <v>0.382021329893348</v>
-      </c>
-      <c r="K15">
-        <v>0.2305062539156956</v>
+        <v>0.2204992990740305</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1003,179 +1000,152 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.3640197375012527</v>
+        <v>-0.3658922776772162</v>
       </c>
       <c r="C16">
-        <v>-0.6357513779059769</v>
+        <v>1.026427718483651</v>
       </c>
       <c r="D16">
-        <v>0.9804730533787229</v>
+        <v>0.3612537649834791</v>
       </c>
       <c r="E16">
-        <v>0.4698527901127105</v>
+        <v>0.707156553732424</v>
       </c>
       <c r="F16">
-        <v>0.6729769627342338</v>
+        <v>0.5696995928588221</v>
       </c>
       <c r="G16">
-        <v>0.5498266739859761</v>
+        <v>-0.2417717533434586</v>
       </c>
       <c r="H16">
-        <v>-0.2216592830752073</v>
+        <v>0.3888296245922537</v>
       </c>
       <c r="I16">
-        <v>0.3861966588320966</v>
-      </c>
-      <c r="J16">
-        <v>0.2193215401759246</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>0.2246746280127792</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-0.4001608867981357</v>
+        <v>1.262018209591492</v>
       </c>
       <c r="C17">
-        <v>1.065151794253032</v>
+        <v>0.4459325058577887</v>
       </c>
       <c r="D17">
-        <v>0.3242524234789934</v>
+        <v>0.5615561870987069</v>
       </c>
       <c r="E17">
-        <v>0.6829307055934764</v>
+        <v>0.5796533357180647</v>
       </c>
       <c r="F17">
-        <v>0.565191843685521</v>
+        <v>-0.2264065836439137</v>
       </c>
       <c r="G17">
-        <v>-0.2605076180326304</v>
+        <v>0.3499812896348306</v>
       </c>
       <c r="H17">
-        <v>0.3703508498049107</v>
-      </c>
-      <c r="I17">
-        <v>0.2109873117084238</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>0.2088288189855932</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
-        <v>1.376175980734415</v>
+        <v>0.7569566923391715</v>
       </c>
       <c r="C18">
-        <v>0.4413411978901886</v>
+        <v>0.6786449615099022</v>
       </c>
       <c r="D18">
-        <v>0.5204665641439096</v>
+        <v>0.4171891942684979</v>
       </c>
       <c r="E18">
-        <v>0.5941507941507226</v>
+        <v>-0.1974476331787121</v>
       </c>
       <c r="F18">
-        <v>-0.2247647455777268</v>
+        <v>0.3857241620897341</v>
       </c>
       <c r="G18">
-        <v>0.3390232034212837</v>
-      </c>
-      <c r="H18">
-        <v>0.2077622620068982</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>0.1775011726019661</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.688166375294303</v>
+        <v>0.9254701389140165</v>
       </c>
       <c r="C19">
-        <v>0.5381224316817991</v>
+        <v>0.4348450618063874</v>
       </c>
       <c r="D19">
-        <v>0.4995285550397281</v>
+        <v>-0.2920698722897066</v>
       </c>
       <c r="E19">
-        <v>-0.1925473573292467</v>
+        <v>0.4179415503382142</v>
       </c>
       <c r="F19">
-        <v>0.351411329249001</v>
-      </c>
-      <c r="G19">
-        <v>0.1868984584576193</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>0.1898892984296834</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.777798791098011</v>
+        <v>0.6745214212225993</v>
       </c>
       <c r="C20">
-        <v>0.5845527985089416</v>
+        <v>-0.2070456288204931</v>
       </c>
       <c r="D20">
-        <v>-0.3090319356872608</v>
+        <v>0.3014569719802002</v>
       </c>
       <c r="E20">
-        <v>0.3665166009008535</v>
-      </c>
-      <c r="F20">
-        <v>0.2101374940836094</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>0.2049945700815359</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.7494128755430289</v>
+        <v>-0.04218555178640582</v>
       </c>
       <c r="C21">
-        <v>-0.2954946634393446</v>
+        <v>0.3149942442281164</v>
       </c>
       <c r="D21">
-        <v>0.3035436819108904</v>
-      </c>
-      <c r="E21">
-        <v>0.2201756597651073</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>0.1420216510915729</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.04164562157393659</v>
+        <v>0.5688432860935244</v>
       </c>
       <c r="C22">
-        <v>0.4028617320929269</v>
-      </c>
-      <c r="D22">
-        <v>0.1085991175498651</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>0.2413397012736094</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0.4469214233323758</v>
-      </c>
-      <c r="C23">
-        <v>0.130019622424466</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>0.2853993925130583</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B24">
-        <v>0.3662627537369125</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST/AR2_50_9_matched_errors_latest.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST/AR2_50_9_matched_errors_latest.xlsx
@@ -513,34 +513,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>9.796688323618699</v>
+        <v>1.927221669332189</v>
       </c>
       <c r="C2">
-        <v>-8.419353553388079</v>
+        <v>9.837584713160302</v>
       </c>
       <c r="D2">
-        <v>-0.6232160131165674</v>
+        <v>-8.393319678463875</v>
       </c>
       <c r="E2">
-        <v>0.719781571001505</v>
+        <v>-0.6114282742262651</v>
       </c>
       <c r="F2">
-        <v>-1.645709516164073</v>
+        <v>0.7256963240920438</v>
       </c>
       <c r="G2">
-        <v>-0.9785742016169946</v>
+        <v>-1.642839634255813</v>
       </c>
       <c r="H2">
-        <v>-0.20769435928658</v>
+        <v>-0.9771667137106722</v>
       </c>
       <c r="I2">
-        <v>-0.2996160391110768</v>
+        <v>-0.2070064541835144</v>
       </c>
       <c r="J2">
-        <v>0.4216474758156494</v>
+        <v>-0.2992794557303528</v>
       </c>
       <c r="K2">
-        <v>-0.2871398212255388</v>
+        <v>0.4218121033883159</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -548,34 +548,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-9.334904851338155</v>
+        <v>8.922033415210226</v>
       </c>
       <c r="C3">
-        <v>-1.178654927766538</v>
+        <v>-8.948758593113844</v>
       </c>
       <c r="D3">
-        <v>0.4008618608037394</v>
+        <v>-0.9303479844240307</v>
       </c>
       <c r="E3">
-        <v>-1.854911900631668</v>
+        <v>0.5164939396244489</v>
       </c>
       <c r="F3">
-        <v>-1.131791633425802</v>
+        <v>-1.79605706606462</v>
       </c>
       <c r="G3">
-        <v>-0.333149228892605</v>
+        <v>-1.102621583316697</v>
       </c>
       <c r="H3">
-        <v>-0.4111884309045327</v>
+        <v>-0.3185788459769703</v>
       </c>
       <c r="I3">
-        <v>0.3169997218817192</v>
+        <v>-0.403927209664283</v>
       </c>
       <c r="J3">
-        <v>-0.3883310997898122</v>
+        <v>0.3206208248240425</v>
       </c>
       <c r="K3">
-        <v>0.1055803449480684</v>
+        <v>-0.3865256473744087</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -583,34 +583,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-8.343884810353487</v>
+        <v>-16.11398847570079</v>
       </c>
       <c r="C4">
-        <v>-5.373792936743199</v>
+        <v>-6.705002781970969</v>
       </c>
       <c r="D4">
-        <v>-6.496969861563686</v>
+        <v>-4.12556402130757</v>
       </c>
       <c r="E4">
-        <v>-4.882319462057946</v>
+        <v>-5.546584894696764</v>
       </c>
       <c r="F4">
-        <v>-3.389234397706988</v>
+        <v>-4.15870675213108</v>
       </c>
       <c r="G4">
-        <v>-2.930893202069679</v>
+        <v>-2.838283617142116</v>
       </c>
       <c r="H4">
-        <v>-1.79047838906512</v>
+        <v>-2.511405320611122</v>
       </c>
       <c r="I4">
-        <v>-2.180036841707216</v>
+        <v>-1.471084917093361</v>
       </c>
       <c r="J4">
-        <v>-1.444748162954129</v>
+        <v>-1.936854155276606</v>
       </c>
       <c r="K4">
-        <v>-0.7897867854766354</v>
+        <v>-1.259591532749623</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -618,34 +618,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-3.693611790173975</v>
+        <v>-5.024821635401745</v>
       </c>
       <c r="C5">
-        <v>0.9190749009450181</v>
+        <v>3.290480741201135</v>
       </c>
       <c r="D5">
-        <v>-2.634263145832853</v>
+        <v>-3.298528578471671</v>
       </c>
       <c r="E5">
-        <v>0.5921266174821862</v>
+        <v>-0.177345736941906</v>
       </c>
       <c r="F5">
-        <v>-0.9527113001597033</v>
+        <v>-0.8601017152321409</v>
       </c>
       <c r="G5">
-        <v>0.6215278570052007</v>
+        <v>-0.09939907454080149</v>
       </c>
       <c r="H5">
-        <v>-0.5900264632062522</v>
+        <v>0.1189254614076025</v>
       </c>
       <c r="I5">
-        <v>0.1978243833556703</v>
+        <v>-0.2942816089668068</v>
       </c>
       <c r="J5">
-        <v>0.4935358542306867</v>
+        <v>0.02373110695769962</v>
       </c>
       <c r="K5">
-        <v>0.9088263634637752</v>
+        <v>0.5960011684983292</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -653,34 +653,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-2.808131625772977</v>
+        <v>-0.4367257855168601</v>
       </c>
       <c r="C6">
-        <v>-0.77139249106923</v>
+        <v>-1.435657923708048</v>
       </c>
       <c r="D6">
-        <v>-0.1687823066887937</v>
+        <v>-0.9382546611128859</v>
       </c>
       <c r="E6">
-        <v>-0.4024803045374513</v>
+        <v>-0.3098707196098889</v>
       </c>
       <c r="F6">
-        <v>0.3742746160819611</v>
+        <v>-0.3466523154640411</v>
       </c>
       <c r="G6">
-        <v>-0.3294423225852309</v>
+        <v>0.3795096020286238</v>
       </c>
       <c r="H6">
-        <v>0.1540433631259821</v>
+        <v>-0.338062629196495</v>
       </c>
       <c r="I6">
-        <v>0.6252233516998879</v>
+        <v>0.1554186044269008</v>
       </c>
       <c r="J6">
-        <v>0.9388562853074672</v>
+        <v>0.6260310903420213</v>
       </c>
       <c r="K6">
-        <v>0.0600786799400978</v>
+        <v>0.9384812611916777</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -688,34 +688,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.3631600374474599</v>
+        <v>-1.027425470086278</v>
       </c>
       <c r="C7">
-        <v>0.08284073719760038</v>
+        <v>-0.6866316172264918</v>
       </c>
       <c r="D7">
-        <v>-0.4843863583605866</v>
+        <v>-0.3917767734330242</v>
       </c>
       <c r="E7">
-        <v>0.4493666654632467</v>
+        <v>-0.2715602660827555</v>
       </c>
       <c r="F7">
-        <v>-0.2235351620715071</v>
+        <v>0.4854167625423476</v>
       </c>
       <c r="G7">
-        <v>0.2124600092846375</v>
+        <v>-0.2796459830378396</v>
       </c>
       <c r="H7">
-        <v>0.6916620355299794</v>
+        <v>0.2218572882569923</v>
       </c>
       <c r="I7">
-        <v>1.013538243918304</v>
+        <v>0.7007130489528578</v>
       </c>
       <c r="J7">
-        <v>0.1303919718410766</v>
+        <v>1.008794553092657</v>
       </c>
       <c r="K7">
-        <v>-0.5999993966742521</v>
+        <v>0.1299126185042169</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -723,34 +723,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.02265847465121479</v>
+        <v>-0.792130829075307</v>
       </c>
       <c r="C8">
-        <v>-0.6104916423259444</v>
+        <v>-0.517882057398382</v>
       </c>
       <c r="D8">
-        <v>0.6176147340964784</v>
+        <v>-0.1033121974495238</v>
       </c>
       <c r="E8">
-        <v>-0.1628710694676248</v>
+        <v>0.5460808551462299</v>
       </c>
       <c r="F8">
-        <v>0.2235928486592704</v>
+        <v>-0.2685131436632067</v>
       </c>
       <c r="G8">
-        <v>0.75452478685691</v>
+        <v>0.2847200395839229</v>
       </c>
       <c r="H8">
-        <v>1.070889771712047</v>
+        <v>0.758064576746601</v>
       </c>
       <c r="I8">
-        <v>0.1748971488454556</v>
+        <v>1.053299730097035</v>
       </c>
       <c r="J8">
-        <v>-0.5489255256478335</v>
+        <v>0.1809864895306355</v>
       </c>
       <c r="K8">
-        <v>1.115476138671014</v>
+        <v>-0.5467029577186135</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,34 +758,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-1.214932262173683</v>
+        <v>-1.122322677246121</v>
       </c>
       <c r="C9">
-        <v>0.553411356741785</v>
+        <v>-0.1675155748042172</v>
       </c>
       <c r="D9">
-        <v>0.128676238589592</v>
+        <v>0.8376281632034467</v>
       </c>
       <c r="E9">
-        <v>0.1858859725733368</v>
+        <v>-0.3062200197491403</v>
       </c>
       <c r="F9">
-        <v>0.7459407667834489</v>
+        <v>0.2761360195104618</v>
       </c>
       <c r="G9">
-        <v>1.154630849309415</v>
+        <v>0.8418056543439694</v>
       </c>
       <c r="H9">
-        <v>0.2097242937735006</v>
+        <v>1.088126875025081</v>
       </c>
       <c r="I9">
-        <v>-0.5223611425955365</v>
+        <v>0.2075508725829325</v>
       </c>
       <c r="J9">
-        <v>1.160974979417613</v>
+        <v>-0.5012041169720147</v>
       </c>
       <c r="K9">
-        <v>0.5338127914751168</v>
+        <v>1.153032079870361</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -793,34 +793,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.4657705279028737</v>
+        <v>-0.2551564036431285</v>
       </c>
       <c r="C10">
-        <v>0.07625703655992344</v>
+        <v>0.7852089611737781</v>
       </c>
       <c r="D10">
-        <v>0.2445323695583424</v>
+        <v>-0.2475736227641347</v>
       </c>
       <c r="E10">
-        <v>0.7508699121205502</v>
+        <v>0.2810651648475631</v>
       </c>
       <c r="F10">
-        <v>1.14353756626052</v>
+        <v>0.8307123712950741</v>
       </c>
       <c r="G10">
-        <v>0.2224909929985871</v>
+        <v>1.100893574250167</v>
       </c>
       <c r="H10">
-        <v>-0.5136315835481774</v>
+        <v>0.2162804316302916</v>
       </c>
       <c r="I10">
-        <v>1.163476923566464</v>
+        <v>-0.4987021728231629</v>
       </c>
       <c r="J10">
-        <v>0.540088728946798</v>
+        <v>1.159308017342042</v>
       </c>
       <c r="K10">
-        <v>0.7747069251866952</v>
+        <v>0.5374031615669816</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -828,34 +828,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.09868501619293202</v>
+        <v>0.8076369408067867</v>
       </c>
       <c r="C11">
-        <v>0.2471359091207911</v>
+        <v>-0.244970083201686</v>
       </c>
       <c r="D11">
-        <v>0.728802226466535</v>
+        <v>0.2589974791935479</v>
       </c>
       <c r="E11">
-        <v>1.137555585956165</v>
+        <v>0.8247303909907191</v>
       </c>
       <c r="F11">
-        <v>0.217147742816176</v>
+        <v>1.095550324067756</v>
       </c>
       <c r="G11">
-        <v>-0.5240001169185436</v>
+        <v>0.2059118982599253</v>
       </c>
       <c r="H11">
-        <v>1.154999601442841</v>
+        <v>-0.5071794949467867</v>
       </c>
       <c r="I11">
-        <v>0.5323164206399872</v>
+        <v>1.151535709035231</v>
       </c>
       <c r="J11">
-        <v>0.7660829516537266</v>
+        <v>0.528779188034013</v>
       </c>
       <c r="K11">
-        <v>0.6652412546050546</v>
+        <v>0.7685186244804663</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -863,34 +863,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.2685604805780112</v>
+        <v>-0.2235455117444659</v>
       </c>
       <c r="C12">
-        <v>0.8489800752657474</v>
+        <v>0.3791753279927603</v>
       </c>
       <c r="D12">
-        <v>1.048361241542382</v>
+        <v>0.7355360465769361</v>
       </c>
       <c r="E12">
-        <v>0.1874207389675982</v>
+        <v>1.065823320219178</v>
       </c>
       <c r="F12">
-        <v>-0.5153739968886335</v>
+        <v>0.2145380182898354</v>
       </c>
       <c r="G12">
-        <v>1.129059428017406</v>
+        <v>-0.5331196683722219</v>
       </c>
       <c r="H12">
-        <v>0.5095378576117597</v>
+        <v>1.128757146007004</v>
       </c>
       <c r="I12">
-        <v>0.7524649165051087</v>
+        <v>0.5151611528853952</v>
       </c>
       <c r="J12">
-        <v>0.6467204574198788</v>
+        <v>0.7499978272952905</v>
       </c>
       <c r="K12">
-        <v>-0.1454929044188731</v>
+        <v>0.6461055229105617</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -898,34 +898,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.806659442945358</v>
+        <v>0.3368546956723708</v>
       </c>
       <c r="C13">
-        <v>1.019156767686649</v>
+        <v>0.7063315727212027</v>
       </c>
       <c r="D13">
-        <v>0.184400139162677</v>
+        <v>1.062802720414257</v>
       </c>
       <c r="E13">
-        <v>-0.534235280500114</v>
+        <v>0.195676734678355</v>
       </c>
       <c r="F13">
-        <v>1.108728296952201</v>
+        <v>-0.5534507994374261</v>
       </c>
       <c r="G13">
-        <v>0.4950077021775119</v>
+        <v>1.114226990572756</v>
       </c>
       <c r="H13">
-        <v>0.7358238710128409</v>
+        <v>0.4985201073931272</v>
       </c>
       <c r="I13">
-        <v>0.6291366119911286</v>
+        <v>0.7324139818665403</v>
       </c>
       <c r="J13">
-        <v>-0.1619667879489159</v>
+        <v>0.6296316393805188</v>
       </c>
       <c r="K13">
-        <v>0.449372724506711</v>
+        <v>-0.16111618316075</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -933,34 +933,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>1.359354508304559</v>
+        <v>1.046529313339113</v>
       </c>
       <c r="C14">
-        <v>0.2597712009466141</v>
+        <v>1.138173782198194</v>
       </c>
       <c r="D14">
-        <v>-0.7253285668131131</v>
+        <v>0.004583448365355902</v>
       </c>
       <c r="E14">
-        <v>1.133422209538934</v>
+        <v>-0.5287568868506929</v>
       </c>
       <c r="F14">
-        <v>0.5043871057338079</v>
+        <v>1.123606394129052</v>
       </c>
       <c r="G14">
-        <v>0.6810130724014498</v>
+        <v>0.4437093087817362</v>
       </c>
       <c r="H14">
-        <v>0.6102425211024588</v>
+        <v>0.7135198909778705</v>
       </c>
       <c r="I14">
-        <v>-0.1768307887639616</v>
+        <v>0.614767638565473</v>
       </c>
       <c r="J14">
-        <v>0.4206610138773402</v>
+        <v>-0.1898278937901207</v>
       </c>
       <c r="K14">
-        <v>0.2638965897873631</v>
+        <v>0.4254186206066807</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -968,31 +968,34 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.7104660729368646</v>
+        <v>1.588868654188444</v>
       </c>
       <c r="C15">
-        <v>-0.6782178646007546</v>
+        <v>0.05169415057771429</v>
       </c>
       <c r="D15">
-        <v>0.8931389787481262</v>
+        <v>-0.7690401176415012</v>
       </c>
       <c r="E15">
-        <v>0.5403321867996707</v>
+        <v>1.159551475194915</v>
       </c>
       <c r="F15">
-        <v>0.6789623149618569</v>
+        <v>0.4416585513421433</v>
       </c>
       <c r="G15">
-        <v>0.5336742816664286</v>
+        <v>0.6369516515418403</v>
       </c>
       <c r="H15">
-        <v>-0.204230183139245</v>
+        <v>0.5873682441901897</v>
       </c>
       <c r="I15">
-        <v>0.3943719636796149</v>
+        <v>-0.2161169439878461</v>
       </c>
       <c r="J15">
-        <v>0.2204992990740305</v>
+        <v>0.382021329893348</v>
+      </c>
+      <c r="K15">
+        <v>0.2305062539156956</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1000,152 +1003,179 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.3658922776772162</v>
+        <v>0.3640197375012527</v>
       </c>
       <c r="C16">
-        <v>1.026427718483651</v>
+        <v>-0.6357513779059769</v>
       </c>
       <c r="D16">
-        <v>0.3612537649834791</v>
+        <v>0.9804730533787229</v>
       </c>
       <c r="E16">
-        <v>0.707156553732424</v>
+        <v>0.4698527901127105</v>
       </c>
       <c r="F16">
-        <v>0.5696995928588221</v>
+        <v>0.6729769627342338</v>
       </c>
       <c r="G16">
-        <v>-0.2417717533434586</v>
+        <v>0.5498266739859761</v>
       </c>
       <c r="H16">
-        <v>0.3888296245922537</v>
+        <v>-0.2216592830752073</v>
       </c>
       <c r="I16">
-        <v>0.2246746280127792</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.3861966588320966</v>
+      </c>
+      <c r="J16">
+        <v>0.2193215401759246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
-        <v>1.262018209591492</v>
+        <v>-0.4001608867981357</v>
       </c>
       <c r="C17">
-        <v>0.4459325058577887</v>
+        <v>1.065151794253032</v>
       </c>
       <c r="D17">
-        <v>0.5615561870987069</v>
+        <v>0.3242524234789934</v>
       </c>
       <c r="E17">
-        <v>0.5796533357180647</v>
+        <v>0.6829307055934764</v>
       </c>
       <c r="F17">
-        <v>-0.2264065836439137</v>
+        <v>0.565191843685521</v>
       </c>
       <c r="G17">
-        <v>0.3499812896348306</v>
+        <v>-0.2605076180326304</v>
       </c>
       <c r="H17">
-        <v>0.2088288189855932</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>0.3703508498049107</v>
+      </c>
+      <c r="I17">
+        <v>0.2109873117084238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.7569566923391715</v>
+        <v>1.376175980734415</v>
       </c>
       <c r="C18">
-        <v>0.6786449615099022</v>
+        <v>0.4413411978901886</v>
       </c>
       <c r="D18">
-        <v>0.4171891942684979</v>
+        <v>0.5204665641439096</v>
       </c>
       <c r="E18">
-        <v>-0.1974476331787121</v>
+        <v>0.5941507941507226</v>
       </c>
       <c r="F18">
-        <v>0.3857241620897341</v>
+        <v>-0.2247647455777268</v>
       </c>
       <c r="G18">
-        <v>0.1775011726019661</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>0.3390232034212837</v>
+      </c>
+      <c r="H18">
+        <v>0.2077622620068982</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.9254701389140165</v>
+        <v>0.688166375294303</v>
       </c>
       <c r="C19">
-        <v>0.4348450618063874</v>
+        <v>0.5381224316817991</v>
       </c>
       <c r="D19">
-        <v>-0.2920698722897066</v>
+        <v>0.4995285550397281</v>
       </c>
       <c r="E19">
-        <v>0.4179415503382142</v>
+        <v>-0.1925473573292467</v>
       </c>
       <c r="F19">
-        <v>0.1898892984296834</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>0.351411329249001</v>
+      </c>
+      <c r="G19">
+        <v>0.1868984584576193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.6745214212225993</v>
+        <v>0.777798791098011</v>
       </c>
       <c r="C20">
-        <v>-0.2070456288204931</v>
+        <v>0.5845527985089416</v>
       </c>
       <c r="D20">
-        <v>0.3014569719802002</v>
+        <v>-0.3090319356872608</v>
       </c>
       <c r="E20">
-        <v>0.2049945700815359</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>0.3665166009008535</v>
+      </c>
+      <c r="F20">
+        <v>0.2101374940836094</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.04218555178640582</v>
+        <v>0.7494128755430289</v>
       </c>
       <c r="C21">
-        <v>0.3149942442281164</v>
+        <v>-0.2954946634393446</v>
       </c>
       <c r="D21">
-        <v>0.1420216510915729</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>0.3035436819108904</v>
+      </c>
+      <c r="E21">
+        <v>0.2201756597651073</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0.5688432860935244</v>
+        <v>-0.04164562157393659</v>
       </c>
       <c r="C22">
-        <v>0.2413397012736094</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>0.4028617320929269</v>
+      </c>
+      <c r="D22">
+        <v>0.1085991175498651</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0.2853993925130583</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0.4469214233323758</v>
+      </c>
+      <c r="C23">
+        <v>0.130019622424466</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="B24">
+        <v>0.3662627537369125</v>
       </c>
     </row>
   </sheetData>
